--- a/Data/Analysis/qualitative_analysis/data/foreground_qualitative_analysis.xlsx
+++ b/Data/Analysis/qualitative_analysis/data/foreground_qualitative_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Documents/1. Studium/TUM/Bachelor-Thesis/Practical/Data/Analysis/qualitative_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7510D1BE-2208-A74B-AEF5-5796382F4AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A14A7A-2150-3647-B54B-7C0EEFFE8C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="26320" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="372">
   <si>
     <t>value</t>
   </si>
@@ -1128,6 +1128,27 @@
   </si>
   <si>
     <t>openai.#ce9459.amount_violations</t>
+  </si>
+  <si>
+    <t>total share of violations</t>
+  </si>
+  <si>
+    <t>Top-7 colors</t>
+  </si>
+  <si>
+    <t>Color Palette</t>
+  </si>
+  <si>
+    <t>absolute amount</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>without black/white</t>
   </si>
 </sst>
 </file>
@@ -1495,63 +1516,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:G365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>601</v>
       </c>
-      <c r="D2">
+      <c r="F2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3">
         <f>SUM(B2:B128)</f>
         <v>3877</v>
       </c>
-      <c r="E2">
-        <f>2713/D2</f>
-        <v>0.69976786174877481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <f>D2-601+17</f>
-        <v>3293</v>
-      </c>
-      <c r="E3">
-        <f>2095/D3</f>
-        <v>0.63619799574855751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f>B2+B3+B5+B4+B20+B37+B17+B36+B126+B50+B98+B10</f>
+        <v>2751</v>
+      </c>
+      <c r="G3">
+        <f>F3/E3</f>
+        <v>0.70956925457828213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1311</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4">
+        <f>E3-B2-B3</f>
+        <v>3259</v>
+      </c>
+      <c r="F4">
+        <f>F3-B2-B3</f>
+        <v>2133</v>
+      </c>
+      <c r="G4">
+        <f>F4/E4</f>
+        <v>0.65449524393985881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1559,39 +1606,64 @@
         <v>717</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f>B2+B5+B4+B16+B22+B10+B39</f>
+        <v>2896</v>
+      </c>
+      <c r="G8">
+        <f>F8/E3</f>
+        <v>0.74696930616456025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f>F3-B2</f>
+        <v>2150</v>
+      </c>
+      <c r="G9">
+        <f>F9/E4</f>
+        <v>0.65971156796563368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1599,7 +1671,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1607,7 +1679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1615,7 +1687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1623,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1631,7 +1703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1639,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2543,55 +2615,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B130">
         <v>528</v>
       </c>
-      <c r="D130">
+      <c r="F130" t="s">
+        <v>368</v>
+      </c>
+      <c r="G130" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>61</v>
+      </c>
+      <c r="D131" t="s">
+        <v>370</v>
+      </c>
+      <c r="E131">
         <f>SUM(B129:B365)</f>
         <v>2705</v>
       </c>
-      <c r="E130">
-        <f>(510+528+22) / D130</f>
-        <v>0.39186691312384475</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>61</v>
-      </c>
-      <c r="D131">
-        <f>D130-528-22</f>
-        <v>2155</v>
-      </c>
-      <c r="E131">
-        <f>510/D131</f>
-        <v>0.23665893271461716</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131">
+        <f>B130+B153+B134+B135+B156+B132+B137+B172+B136+B171</f>
+        <v>1059</v>
+      </c>
+      <c r="G131">
+        <f>F131/E131</f>
+        <v>0.39149722735674675</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B132">
         <v>153</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>371</v>
+      </c>
+      <c r="E132">
+        <f>E131-B130-B153</f>
+        <v>2155</v>
+      </c>
+      <c r="F132">
+        <f>F131-B130-B153</f>
+        <v>509</v>
+      </c>
+      <c r="G132">
+        <f>F132/E132</f>
+        <v>0.23619489559164733</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -2599,39 +2694,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B134">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B135">
         <v>158</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>365</v>
+      </c>
+      <c r="G135" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B136">
         <v>152</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136">
+        <f>B130+B132+B135+B136+B139+B157+B131</f>
+        <v>1307</v>
+      </c>
+      <c r="G136">
+        <f>F136/E131</f>
+        <v>0.48317929759704253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B137">
         <v>26</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137">
+        <f>F136-B130</f>
+        <v>779</v>
+      </c>
+      <c r="G137">
+        <f>F137/E132</f>
+        <v>0.36148491879350347</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -2639,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -2647,7 +2767,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -2655,7 +2775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -2663,7 +2783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -2671,7 +2791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -2679,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>

--- a/Data/Analysis/qualitative_analysis/data/foreground_qualitative_analysis.xlsx
+++ b/Data/Analysis/qualitative_analysis/data/foreground_qualitative_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Documents/1. Studium/TUM/Bachelor-Thesis/Practical/Data/Analysis/qualitative_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A14A7A-2150-3647-B54B-7C0EEFFE8C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F70A7E5-91EA-BC40-B496-27FB889B2DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="26320" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="400">
   <si>
     <t>value</t>
   </si>
@@ -1149,6 +1149,90 @@
   </si>
   <si>
     <t>without black/white</t>
+  </si>
+  <si>
+    <t>qwen.#e74c3c.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#ff9900.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#33cc33.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#6c757d.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#45a29e.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#ff6b6b.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#00bfa5.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#ff6b00.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#f44336.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#00cc99.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#999999.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#666666.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#888888.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#2980b9.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#ff9800.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#003366.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#007aff.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#0099cc.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#ff6300.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#ff0000.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#000000.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#4caf50.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#4a90e2.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#00c8ff.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#28a745.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#0000ee.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#007bff.amount_violations</t>
+  </si>
+  <si>
+    <t>qwen.#ffffff.amount_violations</t>
   </si>
 </sst>
 </file>
@@ -1516,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G365"/>
+  <dimension ref="A1:G393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="F369" sqref="F369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4471,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>352</v>
       </c>
@@ -4479,7 +4563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>353</v>
       </c>
@@ -4487,7 +4571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>354</v>
       </c>
@@ -4495,7 +4579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>355</v>
       </c>
@@ -4503,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>356</v>
       </c>
@@ -4511,7 +4595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>357</v>
       </c>
@@ -4519,7 +4603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>358</v>
       </c>
@@ -4527,7 +4611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>359</v>
       </c>
@@ -4535,7 +4619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>360</v>
       </c>
@@ -4543,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>361</v>
       </c>
@@ -4551,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>362</v>
       </c>
@@ -4559,7 +4643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>363</v>
       </c>
@@ -4567,12 +4651,300 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B365">
         <v>21</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B366">
+        <v>741</v>
+      </c>
+      <c r="F366" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B367">
+        <v>210</v>
+      </c>
+      <c r="F367" t="s">
+        <v>368</v>
+      </c>
+      <c r="G367" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B368">
+        <v>114</v>
+      </c>
+      <c r="D368" t="s">
+        <v>370</v>
+      </c>
+      <c r="E368">
+        <f>SUM(B366:B393)</f>
+        <v>1785</v>
+      </c>
+      <c r="F368">
+        <f>B366+B367+B368+B373+B381+B382+B383+B377+B374+B369+B390</f>
+        <v>1509</v>
+      </c>
+      <c r="G368">
+        <f>F368/E368</f>
+        <v>0.8453781512605042</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B369">
+        <v>108</v>
+      </c>
+      <c r="D369" t="s">
+        <v>371</v>
+      </c>
+      <c r="E369">
+        <f>E368-B366-B373</f>
+        <v>1005</v>
+      </c>
+      <c r="F369">
+        <f>F368-B366-B373</f>
+        <v>729</v>
+      </c>
+      <c r="G369">
+        <f>F369/E369</f>
+        <v>0.72537313432835826</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B370">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B371">
+        <v>72</v>
+      </c>
+      <c r="F371" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B372">
+        <v>30</v>
+      </c>
+      <c r="F372" t="s">
+        <v>365</v>
+      </c>
+      <c r="G372" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B373">
+        <v>39</v>
+      </c>
+      <c r="F373">
+        <f>B366+B367+B368+B369+B381+B371+B377</f>
+        <v>1482</v>
+      </c>
+      <c r="G373">
+        <f>F373/E368</f>
+        <v>0.83025210084033618</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B374">
+        <v>6</v>
+      </c>
+      <c r="F374">
+        <f>F373-B366</f>
+        <v>741</v>
+      </c>
+      <c r="G374">
+        <f>F374/E369</f>
+        <v>0.73731343283582085</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B375">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B376">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B377">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B378">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B379">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B381">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B382">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B384">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B385">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B386">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B388">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B389">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B390">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B393">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
